--- a/scenarios/bladder/processes/BladderSymptomCheck.xlsx
+++ b/scenarios/bladder/processes/BladderSymptomCheck.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211ED9FD-0423-4032-8F58-6C18844C5D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,172 +27,172 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="123">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category 1: Vermehrter Harndrang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musst du öfter auf Toilette als sonst?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[pee]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(burn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categroy 2: Probleme beim Wasserlassen/Blase entleeren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hast du Schmerzen bzw. brennt es beim Wasserlassen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[pain]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(volume)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist die Urinmenge trotz starkem Harndrang relativ gering?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[volume]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(cramps)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cramps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hast du krampfartige Unterleibsbeschwerden, insbesondere beim Wasserlassen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[cramps]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(urine)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itch</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>Popup</t>
+  </si>
+  <si>
+    <t>pee</t>
+  </si>
+  <si>
+    <t>Category 1: Vermehrter Harndrang</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Musst du öfter auf Toilette als sonst?</t>
+  </si>
+  <si>
+    <t>[pee]</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>GO(burn)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>Categroy 2: Probleme beim Wasserlassen/Blase entleeren</t>
+  </si>
+  <si>
+    <t>Hast du Schmerzen bzw. brennt es beim Wasserlassen?</t>
+  </si>
+  <si>
+    <t>[pain]</t>
+  </si>
+  <si>
+    <t>GO(volume)</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Ist die Urinmenge trotz starkem Harndrang relativ gering?</t>
+  </si>
+  <si>
+    <t>[volume]</t>
+  </si>
+  <si>
+    <t>GO(cramps)</t>
+  </si>
+  <si>
+    <t>cramps</t>
+  </si>
+  <si>
+    <t>Hast du krampfartige Unterleibsbeschwerden, insbesondere beim Wasserlassen?</t>
+  </si>
+  <si>
+    <t>[cramps]</t>
+  </si>
+  <si>
+    <t>GO(urine)</t>
+  </si>
+  <si>
+    <t>itch</t>
   </si>
   <si>
     <t xml:space="preserve">Category 3: Gegenanzeige </t>
   </si>
   <si>
-    <t xml:space="preserve">Verspührst du ein starkes Jucken im Genitalbereich?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[itch]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF [sex] == female THEN GO(secret) ELSE GO(urine1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secret</t>
+    <t>Verspührst du ein starkes Jucken im Genitalbereich?</t>
+  </si>
+  <si>
+    <t>[itch]</t>
+  </si>
+  <si>
+    <t>IF [sex] == female THEN GO(secret) ELSE GO(urine1)</t>
+  </si>
+  <si>
+    <t>secret</t>
   </si>
   <si>
     <t xml:space="preserve">Hat sich dein vaginaler Ausfluss verändert? </t>
   </si>
   <si>
-    <t xml:space="preserve">[secret]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info Ausfluss (…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(blood)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urine1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category4: Urin (Severe - specific)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist dein Urin trüb oder unangenehm riechend?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[urine]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(itch)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erkennst du Blut im Urin?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[blood]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(fever)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flankpain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leidest du unter sogenannten Flankenschmerzen? (Schmerzen im seitlichen Rückenbereich unterhalb der Rippen)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[flankpain]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fever</t>
+    <t>[secret]</t>
+  </si>
+  <si>
+    <t>Info Ausfluss (…)</t>
+  </si>
+  <si>
+    <t>GO(blood)</t>
+  </si>
+  <si>
+    <t>urine1</t>
+  </si>
+  <si>
+    <t>Category4: Urin (Severe - specific)</t>
+  </si>
+  <si>
+    <t>Ist dein Urin trüb oder unangenehm riechend?</t>
+  </si>
+  <si>
+    <t>[urine]</t>
+  </si>
+  <si>
+    <t>GO(itch)</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Erkennst du Blut im Urin?</t>
+  </si>
+  <si>
+    <t>[blood]</t>
+  </si>
+  <si>
+    <t>GO(fever)</t>
+  </si>
+  <si>
+    <t>flankpain</t>
+  </si>
+  <si>
+    <t>Leidest du unter sogenannten Flankenschmerzen? (Schmerzen im seitlichen Rückenbereich unterhalb der Rippen)</t>
+  </si>
+  <si>
+    <t>[flankpain]</t>
+  </si>
+  <si>
+    <t>fever</t>
   </si>
   <si>
     <t xml:space="preserve">Categroy 5: Severe (unspecific) </t>
@@ -196,231 +201,212 @@
     <t xml:space="preserve">Hast du Fieber? </t>
   </si>
   <si>
-    <t xml:space="preserve">[fever]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF [sex] == female THEN GO(pregnancy) ELSE GO(smoke)</t>
+    <t>[fever]</t>
+  </si>
+  <si>
+    <t>IF [sex] == female THEN GO(pregnancy) ELSE GO(smoke)</t>
   </si>
   <si>
     <t xml:space="preserve">pregnant </t>
   </si>
   <si>
-    <t xml:space="preserve">Bist du Schwanger?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[pregnant]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(smoke)</t>
+    <t>Bist du Schwanger?</t>
+  </si>
+  <si>
+    <t>[pregnant]</t>
+  </si>
+  <si>
+    <t>GO(smoke)</t>
   </si>
   <si>
     <t xml:space="preserve">Vielleicht </t>
   </si>
   <si>
-    <t xml:space="preserve">maybe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wurde bei dir Diabetes oder zu hoher Blutzucker diagnostiziert?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[diabetes]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category 6: extra information</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>Wurde bei dir Diabetes oder zu hoher Blutzucker diagnostiziert?</t>
+  </si>
+  <si>
+    <t>[diabetes]</t>
+  </si>
+  <si>
+    <t>GO(time)</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>Category 6: extra information</t>
   </si>
   <si>
     <t xml:space="preserve">Rauchst du? </t>
   </si>
   <si>
-    <t xml:space="preserve">[smoker]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(rr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das möchte ich nicht sagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wurde bei dir zu hoher Blutdruck diagnostiziert?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[rr]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(dm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie lange Schon?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie lange hast du die Beschwerden schon?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[days]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(prevmed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Tage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Tage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three</t>
+    <t>[smoker]</t>
+  </si>
+  <si>
+    <t>GO(rr)</t>
+  </si>
+  <si>
+    <t>Das möchte ich nicht sagen</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>Wurde bei dir zu hoher Blutdruck diagnostiziert?</t>
+  </si>
+  <si>
+    <t>[rr]</t>
+  </si>
+  <si>
+    <t>GO(dm)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Wie lange Schon?</t>
+  </si>
+  <si>
+    <t>Wie lange hast du die Beschwerden schon?</t>
+  </si>
+  <si>
+    <t>[days]</t>
+  </si>
+  <si>
+    <t>1 Tag</t>
+  </si>
+  <si>
+    <t>GO(prevmed)</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>2 Tage</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>3 Tage</t>
+  </si>
+  <si>
+    <t>three</t>
   </si>
   <si>
     <t xml:space="preserve">4 Tage </t>
   </si>
   <si>
-    <t xml:space="preserve">four</t>
+    <t>four</t>
   </si>
   <si>
     <t xml:space="preserve">5 Tage </t>
   </si>
   <si>
-    <t xml:space="preserve">five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Tage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mehr als 6 Tage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seven_more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prevmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrevMed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hast du schon ein Medikament angewendet?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[prevmed]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja, länger als 2 Tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(result)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja, habe es aber gerade erst damit angefangen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right Meds?</t>
+    <t>five</t>
+  </si>
+  <si>
+    <t>6 Tage</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>Mehr als 6 Tage</t>
+  </si>
+  <si>
+    <t>seven_more</t>
+  </si>
+  <si>
+    <t>prevmed</t>
+  </si>
+  <si>
+    <t>PrevMed</t>
+  </si>
+  <si>
+    <t>Hast du schon ein Medikament angewendet?</t>
+  </si>
+  <si>
+    <t>[prevmed]</t>
+  </si>
+  <si>
+    <t>Ja, länger als 2 Tag</t>
+  </si>
+  <si>
+    <t>GO(result)</t>
+  </si>
+  <si>
+    <t>yes_long</t>
+  </si>
+  <si>
+    <t>Ja, habe es aber gerade erst damit angefangen</t>
+  </si>
+  <si>
+    <t>meds</t>
+  </si>
+  <si>
+    <t>Right Meds?</t>
   </si>
   <si>
     <t xml:space="preserve">Wollen wir das richtige Medikament für dich finden? </t>
   </si>
   <si>
-    <t xml:space="preserve">GO(meds2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go(WhatThen)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meds2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need antibiotics?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antibiotika sind verschreibungspflichtig. Möchtest du z.B. das passende pflanzliche Medikament herausfinden?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMP(Bladder_meds)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, ich brauche ein Antibiotikum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(antibiotics)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antibiotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dabei kann ich dir im Moment leider nicht weiterhelfen. Ich habe im Ratgeber Informationen zu dem Thema bereitgestellt, wo ich dir z.B. in Videos mehr zu der Thematik erkläre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(clip_Antibiotics)</t>
+    <t>GO(meds2)</t>
+  </si>
+  <si>
+    <t>Go(WhatThen)</t>
+  </si>
+  <si>
+    <t>meds2</t>
+  </si>
+  <si>
+    <t>Need antibiotics?</t>
+  </si>
+  <si>
+    <t>Antibiotika sind verschreibungspflichtig. Möchtest du z.B. das passende pflanzliche Medikament herausfinden?</t>
+  </si>
+  <si>
+    <t>JUMP(Bladder_meds)</t>
+  </si>
+  <si>
+    <t>Nein, ich brauche ein Antibiotikum</t>
+  </si>
+  <si>
+    <t>GO(antibiotics)</t>
+  </si>
+  <si>
+    <t>antibiotics</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Dabei kann ich dir im Moment leider nicht weiterhelfen. Ich habe im Ratgeber Informationen zu dem Thema bereitgestellt, wo ich dir z.B. in Videos mehr zu der Thematik erkläre.</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>GO(clip_Antibiotics)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -430,7 +416,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -438,7 +424,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -446,7 +432,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFA6A6A6"/>
       <name val="Calibri"/>
@@ -461,7 +447,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -501,14 +487,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFF4B183"/>
       </left>
@@ -521,7 +507,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFF4B183"/>
       </left>
@@ -533,134 +519,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="MetaData_Columns" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="MetaData_Columns" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -719,39 +641,61 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF3652A0"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>299478</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>164083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2151720</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:colOff>2146278</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Grafik 3" descr=""/>
+        <xdr:cNvPr id="2" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304920" y="13264920"/>
-          <a:ext cx="9923040" cy="2107800"/>
+          <a:off x="299478" y="13297697"/>
+          <a:ext cx="8274814" cy="2104029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -766,30 +710,322 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.24"/>
+    <col min="1" max="1" width="13.3828125" customWidth="1"/>
+    <col min="2" max="2" width="17.3828125" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.53515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="7" width="11.15234375" customWidth="1"/>
+    <col min="8" max="8" width="26.3046875" customWidth="1"/>
+    <col min="9" max="9" width="25.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -818,8 +1054,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -832,11 +1068,11 @@
         <v>12</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>14</v>
@@ -844,15 +1080,15 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>14</v>
@@ -860,16 +1096,16 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -882,11 +1118,11 @@
         <v>22</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
         <v>14</v>
@@ -894,15 +1130,15 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
         <v>14</v>
@@ -910,15 +1146,15 @@
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="6"/>
@@ -928,11 +1164,11 @@
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
@@ -940,14 +1176,14 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -955,15 +1191,15 @@
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="6"/>
@@ -973,11 +1209,11 @@
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -985,14 +1221,14 @@
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -1000,15 +1236,15 @@
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1020,11 +1256,11 @@
       <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1034,11 +1270,11 @@
       <c r="E15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1048,12 +1284,12 @@
       <c r="E16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1062,43 +1298,43 @@
       <c r="D17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>40</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1110,40 +1346,40 @@
       <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="6"/>
@@ -1153,40 +1389,40 @@
       <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="6"/>
@@ -1196,40 +1432,40 @@
       <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -1241,40 +1477,40 @@
       <c r="D29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="6"/>
@@ -1285,11 +1521,11 @@
         <v>61</v>
       </c>
       <c r="F32" s="8"/>
-      <c r="G32" s="0" t="s">
+      <c r="G32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -1297,15 +1533,15 @@
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="0" t="s">
+      <c r="G33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B34" s="6"/>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -1313,15 +1549,15 @@
       <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="0" t="s">
+      <c r="G34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="7" t="s">
         <v>14</v>
@@ -1329,16 +1565,16 @@
       <c r="D35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>63</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="0" t="s">
+      <c r="G35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="6"/>
@@ -1349,11 +1585,11 @@
         <v>67</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="0" t="s">
+      <c r="G36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B37" s="6"/>
       <c r="C37" s="7" t="s">
         <v>14</v>
@@ -1361,15 +1597,15 @@
       <c r="D37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>69</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="0" t="s">
+      <c r="G37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B38" s="6"/>
       <c r="C38" s="7" t="s">
         <v>14</v>
@@ -1377,16 +1613,16 @@
       <c r="D38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>69</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="0" t="s">
+      <c r="G38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -1399,11 +1635,11 @@
         <v>72</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="0" t="s">
+      <c r="G39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B40" s="6"/>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -1411,15 +1647,15 @@
       <c r="D40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>74</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="0" t="s">
+      <c r="G40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B41" s="6"/>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -1427,15 +1663,15 @@
       <c r="D41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>74</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="0" t="s">
+      <c r="G41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B42" s="6"/>
       <c r="C42" s="7" t="s">
         <v>14</v>
@@ -1443,16 +1679,16 @@
       <c r="D42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>74</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="0" t="s">
+      <c r="G42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="6"/>
@@ -1463,11 +1699,11 @@
         <v>77</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="0" t="s">
+      <c r="G43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B44" s="6"/>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -1475,15 +1711,15 @@
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>79</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="0" t="s">
+      <c r="G44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B45" s="6"/>
       <c r="C45" s="7" t="s">
         <v>14</v>
@@ -1491,16 +1727,16 @@
       <c r="D45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>79</v>
       </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="0" t="s">
+      <c r="G45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -1513,11 +1749,11 @@
         <v>82</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="0" t="s">
+      <c r="G46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B47" s="6"/>
       <c r="C47" s="7" t="s">
         <v>14</v>
@@ -1525,15 +1761,15 @@
       <c r="D47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" t="s">
         <v>85</v>
       </c>
       <c r="F47" s="8"/>
-      <c r="G47" s="0" t="s">
+      <c r="G47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B48" s="6"/>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -1541,15 +1777,15 @@
       <c r="D48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>85</v>
       </c>
       <c r="F48" s="8"/>
-      <c r="G48" s="0" t="s">
+      <c r="G48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B49" s="6"/>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -1557,15 +1793,15 @@
       <c r="D49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>85</v>
       </c>
       <c r="F49" s="8"/>
-      <c r="G49" s="0" t="s">
+      <c r="G49" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B50" s="6"/>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -1573,15 +1809,15 @@
       <c r="D50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" t="s">
         <v>85</v>
       </c>
       <c r="F50" s="8"/>
-      <c r="G50" s="0" t="s">
+      <c r="G50" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B51" s="6"/>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -1589,15 +1825,15 @@
       <c r="D51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" t="s">
         <v>85</v>
       </c>
       <c r="F51" s="8"/>
-      <c r="G51" s="0" t="s">
+      <c r="G51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B52" s="6"/>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -1605,15 +1841,15 @@
       <c r="D52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" t="s">
         <v>85</v>
       </c>
       <c r="F52" s="8"/>
-      <c r="G52" s="0" t="s">
+      <c r="G52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B53" s="6"/>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -1621,7 +1857,7 @@
       <c r="D53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>85</v>
       </c>
       <c r="F53" s="8"/>
@@ -1629,8 +1865,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>99</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -1643,11 +1879,11 @@
         <v>101</v>
       </c>
       <c r="F54" s="8"/>
-      <c r="G54" s="0" t="s">
+      <c r="G54" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B55" s="6"/>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -1655,71 +1891,71 @@
       <c r="D55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" t="s">
         <v>104</v>
       </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="0" t="s">
+      <c r="G55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" t="s">
         <v>104</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" t="s">
         <v>104</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D59" s="15"/>
     </row>
-    <row r="60" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D60" s="16"/>
     </row>
-    <row r="61" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D61" s="17"/>
     </row>
-    <row r="62" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D62" s="17"/>
     </row>
-    <row r="64" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D64" s="16"/>
     </row>
-    <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D65" s="16"/>
     </row>
-    <row r="67" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D67" s="18"/>
     </row>
-    <row r="68" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D68" s="17"/>
     </row>
-    <row r="70" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D70" s="16"/>
     </row>
-    <row r="71" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>107</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -1732,7 +1968,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B72" s="6"/>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -1740,11 +1976,11 @@
       <c r="D72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B73" s="6"/>
       <c r="C73" s="7" t="s">
         <v>14</v>
@@ -1756,8 +1992,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>112</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -1770,7 +2006,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B75" s="6"/>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -1782,7 +2018,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B76" s="6"/>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -1790,12 +2026,12 @@
       <c r="D76" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>118</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -1808,7 +2044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B78" s="6"/>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -1820,18 +2056,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/scenarios/bladder/processes/BladderSymptomCheck.xlsx
+++ b/scenarios/bladder/processes/BladderSymptomCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211ED9FD-0423-4032-8F58-6C18844C5D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAE7F98-2D00-4042-A9F8-D50D6FD8D795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="173">
   <si>
     <t>ID</t>
   </si>
@@ -394,13 +394,281 @@
   </si>
   <si>
     <t>GO(clip_Antibiotics)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Symptome sind typisch für eine Blasenentzündung.
+Eine unkomplizierte Blasenentzündung wie sie bei dir wahrscheinlich vorliegt, muss nicht mit einem Antibiotikum behandelt werden. Es gibt hierfür mittlerweile auch andere Medikamente, meist auf pflanzlicher Basis, die gut wirken und das ohne die Nachteile einer Antibiotika-Therapie.
+Apothekenpflichtige pflanzliche Kombinationspräparate können z.B. gezielt zur Linderung der Symptome beitragen, indem Sie dafür sorgen, dass die Bakterien aus der Blase gespült werden und sich die Blase dadurch wieder erholen und regenerieren kann.  
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>result_unsevere</t>
+  </si>
+  <si>
+    <t>result_severe_2</t>
+  </si>
+  <si>
+    <t>result_severe_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Urine/blood/fever: </t>
+  </si>
+  <si>
+    <t>result_severe_0</t>
+  </si>
+  <si>
+    <t>Deine Symptome deuten auf eine Blasenentzündung oder eine andere Infektion der Harnwege hin. 
+Du hast Anzeichen einer komplizierten Harnwegsinfektion beschrieben. Dabei können sich die Bakterien bereits von der Blase auf die oberen Harnwege und die Nierenbecken verbreitet haben.
+Ich empfehle dir dringend deine Ärztin oder deinen Arzt zu kontaktieren und mit ihr/ihm abzuklären, was in deinem Fall die richtige Behandlung darstellt. Eventuell ist hier ein Antibiotikum das Mittel der Wahl.
+Zur kurzfristigen Abhilfe kann ich dir andere Medikamente, z.B. auf pflanzlicher Basis empfehlen, die jedoch nicht die Behandlung durch einen Arzt ersetzten können.
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.</t>
+  </si>
+  <si>
+    <t>Deine Symptome deuten auf eine Blasenentzündung oder eine andere Infektion der Harnwege hin. 
+Zur kurzfristigen Abhilfe kann ich dir andere Medikamente, z.B. auf pflanzlicher Basis empfehlen, die jedoch nicht die Behandlung durch einen Arzt ersetzten können.
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.</t>
+  </si>
+  <si>
+    <t>If pregnant/male/DM</t>
+  </si>
+  <si>
+    <t>Deine Symptome deuten auf eine Blasenentzündung oder eine andere Infektion der Harnwege hin. 
+In deinem Fall empfiehlt die Leitlinie der Deutschen Gesellschaft für Urologie dringend deine Ärztin oder deinen Arzt zu kontaktieren und mit ihr/ihm abzuklären, was in deinem Fall die richtige Behandlung darstellt. Eventuell ist hier ein Antibiotikum das Mittel der Wahl.
+Zur kurzfristigen Abhilfe kann ich dir andere Medikamente, z.B. auf pflanzlicher Basis empfehlen, die jedoch nicht die Behandlung durch einen Arzt ersetzten können.
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.</t>
+  </si>
+  <si>
+    <t>severe_uti</t>
+  </si>
+  <si>
+    <t>simple_uti</t>
+  </si>
+  <si>
+    <t>no_uti</t>
+  </si>
+  <si>
+    <t>result_none0</t>
+  </si>
+  <si>
+    <t>result_none1</t>
+  </si>
+  <si>
+    <t>result_none1a</t>
+  </si>
+  <si>
+    <t>result_none1b</t>
+  </si>
+  <si>
+    <t>result_none1ab</t>
+  </si>
+  <si>
+    <t>result_none2ab</t>
+  </si>
+  <si>
+    <t>result_none2a</t>
+  </si>
+  <si>
+    <t>result_none2b</t>
+  </si>
+  <si>
+    <t>result_none0a</t>
+  </si>
+  <si>
+    <t>result_none0b</t>
+  </si>
+  <si>
+    <t>result_none0ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Beschreibung deutet nicht auf eine Blasenentzündung hin. 
+Bei Patienten die unter einer Blasenentzündung leiden, treten häufig mehrere Symptome gleichzeitig auf. Charakteristisch sind hier brennende Schmerzen beim Wasserlassen, vermehrter Harndrang ohne gesteigertes Urin-Volumen, krampfartige Unterleibsbeschwerden.
+In deinem Fall ist eine Blasenentzündung aufgrund der von dir beschriebenen Symptomatik unwahrscheinlich, es könnte sich jedoch um eine andere Erkrankung handeln.
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Beschreibung deutet nicht auf eine Blasenentzündung hin. 
+Bei Patienten die unter einer Blasenentzündung leiden, treten häufig mehrere Symptome gleichzeitig auf. Charakteristisch sind hier brennende Schmerzen beim Wasserlassen, vermehrter Harndrang ohne gesteigertes Urin-Volumen, krampfartige Unterleibsbeschwerden.
+In deinem Fall ist eine Blasenentzündung aufgrund der von dir beschriebenen Symptomatik unwahrscheinlich, es könnte sich jedoch um eine andere Erkrankung handeln.
+Der von dir beschriebene vermehrte Harndrang, kann unter anderem folgende Gründe haben:
+- Manche Medikamente haben harntreibende (Neben-) Wirkungen 
+- Besonders harntreibend sind auch folgende Getränke: Matetee, schwarzer und grüner Tee, Eistee, Kaffee und Bier
+- Folgende Erkrankungen können auch zu vermehrtem Harndrang führen: Diabetes mellitus, Gebärmutter- und Prostataentzündungen oder eine überaktive Blase 
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Beschreibung deutet nicht auf eine Blasenentzündung hin. 
+Bei Patienten die unter einer Blasenentzündung leiden, treten häufig mehrere Symptome gleichzeitig auf. Charakteristisch sind hier brennende Schmerzen beim Wasserlassen, vermehrter Harndrang ohne gesteigertes Urin-Volumen, krampfartige Unterleibsbeschwerden.
+In deinem Fall ist eine Blasenentzündung aufgrund der von dir beschriebenen Symptomatik unwahrscheinlich, es könnte sich jedoch um eine andere Erkrankung handeln.
+Die von dir beschriebenen Probleme beim Wasserlassen, können unter anderem folgende Gründe haben:
+- Dranginkontinenz 
+- Tumore im Harntrakt und eine gutartige Prostatavergrößerung bei Männern
+- Steine in Harnwegen oder der Niere
+- Anderweitige Entzündungen im Darm oder im Unterleib, z.B. der Eileiter oder der Prostata   
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Beschreibung deutet nicht auf eine Blasenentzündung hin. 
+Bei Patienten die unter einer Blasenentzündung leiden, treten häufig mehrere Symptome gleichzeitig auf. Charakteristisch sind hier brennende Schmerzen beim Wasserlassen, vermehrter Harndrang ohne gesteigertes Urin-Volumen, krampfartige Unterleibsbeschwerden.
+In deinem Fall ist eine Blasenentzündung aufgrund der von dir beschriebenen Symptomatik unwahrscheinlich, es könnte sich jedoch um eine andere Erkrankung handeln.
+Der von dir beschriebene vermehrte Harndrang, kann unter anderem folgende Gründe haben:
+- Manche Medikamente haben harntreibende (Neben-) Wirkungen 
+- Besonders harntreibend sind auch folgende Getränke: Matetee, schwarzer und grüner Tee, Eistee, Kaffee und Bier
+- Folgende Erkrankungen können auch zu vermehrtem Harndrang führen: Diabetes mellitus, Gebärmutter- und Prostataentzündungen oder eine überaktive Blase 
+Die von dir beschriebenen Probleme beim Wasserlassen, können unter anderem folgende Gründe haben:
+- Dranginkontinenz 
+- Tumore im Harntrakt und eine gutartige Prostatavergrößerung bei Männern
+- Steine in Harnwegen oder der Niere
+- Anderweitige Entzündungen im Darm oder im Unterleib, z.B. der Eileiter oder der Prostata   
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Beschreibung deutet nicht auf eine Blasenentzündung hin. 
+Bei Patienten die unter einer Blasenentzündung leiden, treten häufig mehrere Symptome gleichzeitig auf. Charakteristisch sind hier brennende Schmerzen beim Wasserlassen, vermehrter Harndrang ohne gesteigertes Urin-Volumen, krampfartige Unterleibsbeschwerden.
+In deinem Fall ist eine Blasenentzündung aufgrund der von dir beschriebenen Symptomatik unwahrscheinlich, es könnte sich jedoch um eine andere Erkrankung handeln.
+In deinem Fall empfiehlt die Leitlinie der Deutschen Gesellschaft für Urologie dringend deine Ärztin oder deinen Arzt zu kontaktieren und mit ihr/ihm abzuklären, was in deinem Fall die richtige Behandlung darstellt.
+Der von dir beschriebene vermehrte Harndrang, kann unter anderem folgende Gründe haben:
+- Manche Medikamente haben harntreibende (Neben-) Wirkungen 
+- Besonders harntreibend sind auch folgende Getränke: Matetee, schwarzer und grüner Tee, Eistee, Kaffee und Bier
+- Folgende Erkrankungen können auch zu vermehrtem Harndrang führen: Diabetes mellitus, Gebärmutter- und Prostataentzündungen oder eine überaktive Blase 
+Die von dir beschriebenen Probleme beim Wasserlassen, können unter anderem folgende Gründe haben:
+- Dranginkontinenz 
+- Tumore im Harntrakt und eine gutartige Prostatavergrößerung bei Männern
+- Steine in Harnwegen oder der Niere
+- Anderweitige Entzündungen im Darm oder im Unterleib, z.B. der Eileiter oder der Prostata   
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Beschreibung deutet nicht auf eine Blasenentzündung hin. 
+Bei Patienten die unter einer Blasenentzündung leiden, treten häufig mehrere Symptome gleichzeitig auf. Charakteristisch sind hier brennende Schmerzen beim Wasserlassen, vermehrter Harndrang ohne gesteigertes Urin-Volumen, krampfartige Unterleibsbeschwerden.
+In deinem Fall ist eine Blasenentzündung aufgrund der von dir beschriebenen Symptomatik unwahrscheinlich, es könnte sich jedoch um eine andere Erkrankung handeln.
+In deinem Fall empfiehlt die Leitlinie der Deutschen Gesellschaft für Urologie dringend deine Ärztin oder deinen Arzt zu kontaktieren und mit ihr/ihm abzuklären, was in deinem Fall die richtige Behandlung darstellt.
+Die von dir beschriebenen Probleme beim Wasserlassen, können unter anderem folgende Gründe haben:
+- Dranginkontinenz 
+- Tumore im Harntrakt und eine gutartige Prostatavergrößerung bei Männern
+- Steine in Harnwegen oder der Niere
+- Anderweitige Entzündungen im Darm oder im Unterleib, z.B. der Eileiter oder der Prostata   
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Beschreibung deutet nicht auf eine Blasenentzündung hin. 
+Bei Patienten die unter einer Blasenentzündung leiden, treten häufig mehrere Symptome gleichzeitig auf. Charakteristisch sind hier brennende Schmerzen beim Wasserlassen, vermehrter Harndrang ohne gesteigertes Urin-Volumen, krampfartige Unterleibsbeschwerden.
+In deinem Fall ist eine Blasenentzündung aufgrund der von dir beschriebenen Symptomatik unwahrscheinlich, es könnte sich jedoch um eine andere Erkrankung handeln.
+In deinem Fall empfiehlt die Leitlinie der Deutschen Gesellschaft für Urologie dringend deine Ärztin oder deinen Arzt zu kontaktieren und mit ihr/ihm abzuklären, was in deinem Fall die richtige Behandlung darstellt.
+Der von dir beschriebene vermehrte Harndrang, kann unter anderem folgende Gründe haben:
+- Manche Medikamente haben harntreibende (Neben-) Wirkungen 
+- Besonders harntreibend sind auch folgende Getränke: Matetee, schwarzer und grüner Tee, Eistee, Kaffee und Bier
+- Folgende Erkrankungen können auch zu vermehrtem Harndrang führen: Diabetes mellitus, Gebärmutter- und Prostataentzündungen oder eine überaktive Blase 
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Beschreibung deutet nicht auf eine Blasenentzündung hin. 
+Bei Patienten die unter einer Blasenentzündung leiden, treten häufig mehrere Symptome gleichzeitig auf. Charakteristisch sind hier brennende Schmerzen beim Wasserlassen, vermehrter Harndrang ohne gesteigertes Urin-Volumen, krampfartige Unterleibsbeschwerden.
+In deinem Fall ist eine Blasenentzündung aufgrund der von dir beschriebenen Symptomatik unwahrscheinlich, es könnte sich jedoch um eine andere Erkrankung handeln.
+Die Leitlinie der Deutschen Gesellschaft für Urologie empfielt dringend deine Ärztin oder deinen Arzt zu kontaktieren und mit ihr/ihm abzuklären, was in deinem Fall die richtige Behandlung darstellt.
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Beschreibung deutet nicht auf eine Blasenentzündung hin. 
+Bei Patienten die unter einer Blasenentzündung leiden, treten häufig mehrere Symptome gleichzeitig auf. Charakteristisch sind hier brennende Schmerzen beim Wasserlassen, vermehrter Harndrang ohne gesteigertes Urin-Volumen, krampfartige Unterleibsbeschwerden.
+In deinem Fall ist eine Blasenentzündung aufgrund der von dir beschriebenen Symptomatik unwahrscheinlich, es könnte sich jedoch um eine andere Erkrankung handeln.
+Die Leitlinie der Deutschen Gesellschaft für Urologie empfielt dringend deine Ärztin oder deinen Arzt zu kontaktieren und mit ihr/ihm abzuklären, was in deinem Fall die richtige Behandlung darstellt.
+Der von dir beschriebene vermehrte Harndrang, kann unter anderem folgende Gründe haben:
+- Manche Medikamente haben harntreibende (Neben-) Wirkungen 
+- Besonders harntreibend sind auch folgende Getränke: Matetee, schwarzer und grüner Tee, Eistee, Kaffee und Bier
+- Folgende Erkrankungen können auch zu vermehrtem Harndrang führen: Diabetes mellitus, Gebärmutter- und Prostataentzündungen oder eine überaktive Blase 
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Beschreibung deutet nicht auf eine Blasenentzündung hin. 
+Bei Patienten die unter einer Blasenentzündung leiden, treten häufig mehrere Symptome gleichzeitig auf. Charakteristisch sind hier brennende Schmerzen beim Wasserlassen, vermehrter Harndrang ohne gesteigertes Urin-Volumen, krampfartige Unterleibsbeschwerden.
+In deinem Fall ist eine Blasenentzündung aufgrund der von dir beschriebenen Symptomatik unwahrscheinlich, es könnte sich jedoch um eine andere Erkrankung handeln.
+Die Leitlinie der Deutschen Gesellschaft für Urologie empfielt dringend deine Ärztin oder deinen Arzt zu kontaktieren und mit ihr/ihm abzuklären, was in deinem Fall die richtige Behandlung darstellt.
+Die von dir beschriebenen Probleme beim Wasserlassen, können unter anderem folgende Gründe haben:
+- Dranginkontinenz 
+- Tumore im Harntrakt und eine gutartige Prostatavergrößerung bei Männern
+- Steine in Harnwegen oder der Niere
+- Anderweitige Entzündungen im Darm oder im Unterleib, z.B. der Eileiter oder der Prostata   
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Beschreibung deutet nicht auf eine Blasenentzündung hin. 
+Bei Patienten die unter einer Blasenentzündung leiden, treten häufig mehrere Symptome gleichzeitig auf. Charakteristisch sind hier brennende Schmerzen beim Wasserlassen, vermehrter Harndrang ohne gesteigertes Urin-Volumen, krampfartige Unterleibsbeschwerden.
+In deinem Fall ist eine Blasenentzündung aufgrund der von dir beschriebenen Symptomatik unwahrscheinlich, es könnte sich jedoch um eine andere Erkrankung handeln.
+Die Leitlinie der Deutschen Gesellschaft für Urologie empfielt dringend deine Ärztin oder deinen Arzt zu kontaktieren und mit ihr/ihm abzuklären, was in deinem Fall die richtige Behandlung darstellt.
+Der von dir beschriebene vermehrte Harndrang, kann unter anderem folgende Gründe haben:
+- Manche Medikamente haben harntreibende (Neben-) Wirkungen 
+- Besonders harntreibend sind auch folgende Getränke: Matetee, schwarzer und grüner Tee, Eistee, Kaffee und Bier
+- Folgende Erkrankungen können auch zu vermehrtem Harndrang führen: Diabetes mellitus, Gebärmutter- und Prostataentzündungen oder eine überaktive Blase 
+Die von dir beschriebenen Probleme beim Wasserlassen, können unter anderem folgende Gründe haben:
+- Dranginkontinenz 
+- Tumore im Harntrakt und eine gutartige Prostatavergrößerung bei Männern
+- Steine in Harnwegen oder der Niere
+- Anderweitige Entzündungen im Darm oder im Unterleib, z.B. der Eileiter oder der Prostata   
+Hinweis: Dieser Test basiert auf deiner persönlichen Selbsteinschätzung und ist kein Ersatz für eine ärztliche Diagnose.
+Für eine genaue Diagnose kontaktieren bitte deine Ärztin/deinen Arzt. </t>
+  </si>
+  <si>
+    <t>If at least one of 1</t>
+  </si>
+  <si>
+    <t>If at least one of 2</t>
+  </si>
+  <si>
+    <t>If at least one of 1 + one of 2</t>
+  </si>
+  <si>
+    <t>If Urine/blood</t>
+  </si>
+  <si>
+    <t>If Urine/blood + at least one of 1</t>
+  </si>
+  <si>
+    <t>If Urine/blood + at least one of 2</t>
+  </si>
+  <si>
+    <t>If Urine/blood + at least one of 1 + one of 2</t>
+  </si>
+  <si>
+    <t>If fever/pregnant/male/DM + at least one of 1</t>
+  </si>
+  <si>
+    <t>If fever/pregnant/male/DM + at least one of 2</t>
+  </si>
+  <si>
+    <t>If fever/pregnant/male/DM + at least one of 1 + one of 2</t>
+  </si>
+  <si>
+    <t>GO(meds)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -447,20 +715,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +757,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -525,7 +805,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -565,17 +845,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="MetaData_Columns" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -666,16 +955,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>299478</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>164083</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381120</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2146278</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>47426</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365103</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>25654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -694,7 +983,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="299478" y="13297697"/>
+          <a:off x="3516206" y="10685125"/>
           <a:ext cx="8274814" cy="2104029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1007,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1018,7 +1307,7 @@
     <col min="1" max="1" width="13.3828125" customWidth="1"/>
     <col min="2" max="2" width="17.3828125" customWidth="1"/>
     <col min="3" max="3" width="13.53515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.53515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="67" style="2" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="7" width="11.15234375" customWidth="1"/>
     <col min="8" max="8" width="26.3046875" customWidth="1"/>
@@ -1927,86 +2216,280 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D59" s="15"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D60" s="16"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D62" s="17"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D64" s="16"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D65" s="16"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D67" s="18"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D68" s="17"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D70" s="16"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:7" ht="174.9" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="174.9" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="306" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="291.45" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="349.75" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="335.15" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="349.75" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="335.15" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A74" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B74" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C74" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D74" s="19" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B72" s="6"/>
-      <c r="C72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B73" s="6"/>
-      <c r="C73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B75" s="6"/>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -2014,51 +2497,90 @@
       <c r="D75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B76" s="6"/>
       <c r="C76" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="58.3" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B78" s="6"/>
       <c r="C78" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="6"/>
+      <c r="C79" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B81" s="6"/>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="E81" s="17" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/scenarios/bladder/processes/BladderSymptomCheck.xlsx
+++ b/scenarios/bladder/processes/BladderSymptomCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAE7F98-2D00-4042-A9F8-D50D6FD8D795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB37107-8964-4789-AD1B-BDAA8B881FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -159,9 +159,6 @@
     <t>urine1</t>
   </si>
   <si>
-    <t>Category4: Urin (Severe - specific)</t>
-  </si>
-  <si>
     <t>Ist dein Urin trüb oder unangenehm riechend?</t>
   </si>
   <si>
@@ -354,27 +351,15 @@
     <t>Right Meds?</t>
   </si>
   <si>
-    <t xml:space="preserve">Wollen wir das richtige Medikament für dich finden? </t>
-  </si>
-  <si>
     <t>GO(meds2)</t>
   </si>
   <si>
-    <t>Go(WhatThen)</t>
-  </si>
-  <si>
     <t>meds2</t>
   </si>
   <si>
     <t>Need antibiotics?</t>
   </si>
   <si>
-    <t>Antibiotika sind verschreibungspflichtig. Möchtest du z.B. das passende pflanzliche Medikament herausfinden?</t>
-  </si>
-  <si>
-    <t>JUMP(Bladder_meds)</t>
-  </si>
-  <si>
     <t>Nein, ich brauche ein Antibiotikum</t>
   </si>
   <si>
@@ -388,12 +373,6 @@
   </si>
   <si>
     <t>Dabei kann ich dir im Moment leider nicht weiterhelfen. Ich habe im Ratgeber Informationen zu dem Thema bereitgestellt, wo ich dir z.B. in Videos mehr zu der Thematik erkläre.</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>GO(clip_Antibiotics)</t>
   </si>
   <si>
     <t>C</t>
@@ -662,6 +641,48 @@
   </si>
   <si>
     <t>GO(meds)</t>
+  </si>
+  <si>
+    <t>FINISH(Link_Ratgeber_Antibiotics)</t>
+  </si>
+  <si>
+    <t>JUMP(Bladder)</t>
+  </si>
+  <si>
+    <t>JUMP(BladderMeds)</t>
+  </si>
+  <si>
+    <t>Category 4: Urin (Severe - specific)</t>
+  </si>
+  <si>
+    <t>result_exit</t>
+  </si>
+  <si>
+    <t>GeneralCheckNeeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die von dir beschriebene Symptome kann ich leider nicht eindeutig einer Blasenentzündung oder einer anderen Harnwegsinfektion zuordnen. Ich empfehle dir einen Arzt zu konsultieren. </t>
+  </si>
+  <si>
+    <t>Wie ist vaginaler Ausfluss normalerweise?</t>
+  </si>
+  <si>
+    <t>Eine Therapie mit Antibiotika ist eine Option, diese sind jedoch. verschreibungspflichtig. Möchtest du z.B. das passende pflanzliche Medikament herausfinden?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wollen wir jetzt das richtige Medikament für dich finden? </t>
+  </si>
+  <si>
+    <t>Möchtest du in unseren Ratgeber zum Teil Harnwegsinfektionen Wechseln?</t>
+  </si>
+  <si>
+    <t>FINISH(Link_Ratgeber_Harnwegsinfektionen)</t>
+  </si>
+  <si>
+    <t>severe_or_none</t>
+  </si>
+  <si>
+    <t>GO(severe_or_none)</t>
   </si>
 </sst>
 </file>
@@ -805,7 +826,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -829,7 +850,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -845,7 +865,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -859,11 +878,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -955,43 +982,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381120</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142311</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>696963</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>365103</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>25654</xdr:rowOff>
+      <xdr:colOff>646339</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>145955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 3">
+        <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E9A6D7-24F7-408B-9108-A6D01D8FD97F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3516206" y="10685125"/>
-          <a:ext cx="8274814" cy="2104029"/>
+          <a:off x="2874106" y="6885214"/>
+          <a:ext cx="9202233" cy="5207812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1296,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1442,7 +1470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1556,7 +1584,7 @@
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="21" t="s">
         <v>37</v>
       </c>
       <c r="G15" t="s">
@@ -1570,7 +1598,7 @@
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="21" t="s">
         <v>37</v>
       </c>
       <c r="G16" t="s">
@@ -1584,13 +1612,16 @@
       <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="22" t="s">
         <v>39</v>
       </c>
       <c r="G17" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="H17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1627,16 +1658,16 @@
         <v>43</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
         <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -1647,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -1661,7 +1692,7 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -1669,17 +1700,17 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
         <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1690,7 +1721,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
@@ -1704,25 +1735,25 @@
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
         <v>53</v>
-      </c>
-      <c r="G26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -1733,7 +1764,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -1747,7 +1778,7 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -1755,19 +1786,19 @@
     </row>
     <row r="29" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
         <v>57</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -1778,7 +1809,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
@@ -1792,7 +1823,7 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
@@ -1800,18 +1831,18 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -1823,7 +1854,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" t="s">
@@ -1839,7 +1870,7 @@
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" t="s">
@@ -1852,30 +1883,30 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>66</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -1887,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" t="s">
@@ -1903,7 +1934,7 @@
         <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" t="s">
@@ -1912,20 +1943,20 @@
     </row>
     <row r="39" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -1933,11 +1964,11 @@
       <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" t="s">
@@ -1953,7 +1984,7 @@
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" t="s">
@@ -1966,30 +1997,30 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2001,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" t="s">
@@ -2017,7 +2048,7 @@
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" t="s">
@@ -2026,20 +2057,20 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -2048,14 +2079,14 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
         <v>84</v>
-      </c>
-      <c r="E47" t="s">
-        <v>85</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -2064,14 +2095,14 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -2080,14 +2111,14 @@
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -2096,14 +2127,14 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -2112,14 +2143,14 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -2128,14 +2159,14 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -2144,32 +2175,32 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="E53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -2178,14 +2209,14 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
         <v>103</v>
-      </c>
-      <c r="E55" t="s">
-        <v>104</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -2193,10 +2224,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
@@ -2210,7 +2241,7 @@
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
@@ -2218,288 +2249,341 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" t="s">
+        <v>167</v>
+      </c>
+      <c r="G59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="174.9" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" t="s">
+        <v>165</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="102" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
         <v>125</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" ht="174.9" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+      <c r="E62" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" t="s">
-        <v>172</v>
-      </c>
-      <c r="G59" s="21" t="s">
+      <c r="C63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" t="s">
+        <v>179</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="174.9" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" t="s">
+        <v>179</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="306" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="291.45" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" t="s">
+        <v>179</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" t="s">
+        <v>179</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" t="s">
+        <v>179</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="349.75" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" t="s">
+        <v>179</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="335.15" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>179</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="349.75" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" t="s">
+        <v>179</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="335.15" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+      <c r="B74" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" t="s">
+        <v>179</v>
+      </c>
+      <c r="G74" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="247.75" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="160.30000000000001" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="174.9" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="306" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="G64" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="291.45" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>150</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="218.6" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G67" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="349.75" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G68" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="335.15" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G69" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G70" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="349.75" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="335.15" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A74" s="21" t="s">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A75" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="24" t="s">
+      <c r="C75" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B75" s="6"/>
-      <c r="C75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" t="s">
-        <v>110</v>
-      </c>
+      <c r="D75" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B76" s="6"/>
@@ -2507,36 +2591,36 @@
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="6"/>
+      <c r="C77" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="E77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B78" s="6"/>
-      <c r="C78" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
@@ -2545,36 +2629,53 @@
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="6"/>
+      <c r="C80" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B81" s="6"/>
-      <c r="C81" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/bladder/processes/BladderSymptomCheck.xlsx
+++ b/scenarios/bladder/processes/BladderSymptomCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB37107-8964-4789-AD1B-BDAA8B881FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF31300-218B-4570-8893-7EF0C463372A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>GO(severe_or_none)</t>
+  </si>
+  <si>
+    <t>[result]</t>
   </si>
 </sst>
 </file>
@@ -1326,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1605,7 +1608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1618,7 +1621,7 @@
       <c r="G17" t="s">
         <v>40</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>173</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -2258,6 +2261,9 @@
         <v>120</v>
       </c>
       <c r="D58" s="17"/>
+      <c r="G58" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A59" t="s">

--- a/scenarios/bladder/processes/BladderSymptomCheck.xlsx
+++ b/scenarios/bladder/processes/BladderSymptomCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF31300-218B-4570-8893-7EF0C463372A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CEC6D1-B6ED-410B-9677-FF71DE8BC31A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>Dabei kann ich dir im Moment leider nicht weiterhelfen. Ich habe im Ratgeber Informationen zu dem Thema bereitgestellt, wo ich dir z.B. in Videos mehr zu der Thematik erkläre.</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t xml:space="preserve">Deine Symptome sind typisch für eine Blasenentzündung.
@@ -686,6 +683,9 @@
   </si>
   <si>
     <t>[result]</t>
+  </si>
+  <si>
+    <t>Okay</t>
   </si>
 </sst>
 </file>
@@ -1327,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>41</v>
@@ -1661,7 +1661,7 @@
         <v>43</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>11</v>
@@ -2252,326 +2252,326 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
         <v>118</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D58" s="17"/>
       <c r="G58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G59" t="s">
         <v>170</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" t="s">
-        <v>167</v>
-      </c>
-      <c r="G59" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="102" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="16" t="s">
+      <c r="E63" t="s">
+        <v>178</v>
+      </c>
+      <c r="G63" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="E63" t="s">
-        <v>179</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="306" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="291.45" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="349.75" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="335.15" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="349.75" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="335.15" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
@@ -2585,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
@@ -2612,7 +2612,7 @@
         <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
@@ -2626,7 +2626,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
@@ -2638,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
@@ -2661,27 +2661,44 @@
         <v>114</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E81" s="15" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>178</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>116</v>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/bladder/processes/BladderSymptomCheck.xlsx
+++ b/scenarios/bladder/processes/BladderSymptomCheck.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Ja</t>
   </si>
   <si>
-    <t xml:space="preserve">GO(burn)</t>
+    <t xml:space="preserve">GO(pain)</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -1006,16 +1006,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1341000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1501920</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>897120</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1028,8 +1028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5279760" y="5447160"/>
-          <a:ext cx="11568600" cy="5254200"/>
+          <a:off x="17692920" y="6985800"/>
+          <a:ext cx="11568240" cy="5253840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1051,8 +1051,8 @@
   </sheetPr>
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
